--- a/tests/TestData/WebOrder_Login_All_Scenario.xlsx
+++ b/tests/TestData/WebOrder_Login_All_Scenario.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training_Scripts\Playwright_Training_NewVersion\tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C20FEE-26DB-462B-BA21-B6EF33C5A7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED5FCC4-B517-4E02-B31B-BBD98553F8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADA5B5D3-28DC-4BF2-816B-09A921B8782D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -412,7 +414,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,4 +484,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374FBE54-1A0E-4410-969E-294C54D2FDB7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06612CB4-D352-42B3-8B8B-6EE631A24096}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>